--- a/jjgys-parent/service-system/src/main/resources/static/沥青路面厚度-钻芯法.xlsx
+++ b/jjgys-parent/service-system/src/main/resources/static/沥青路面厚度-钻芯法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\qx\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课程作业\研\交竣工\交竣工项目交接\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E51477-0863-4E5A-B949-EEA7F50A4B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE0DF6-6BDA-4583-9872-4DE3E3AEB8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保证率系数" sheetId="5" state="hidden" r:id="rId1"/>
@@ -53,6 +53,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -61,6 +62,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,6 +77,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -83,6 +86,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -97,6 +101,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -105,6 +110,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -129,6 +135,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -137,6 +144,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -151,6 +159,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -159,6 +168,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -173,6 +183,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -181,6 +192,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -205,6 +217,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -213,6 +226,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -227,6 +241,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -235,6 +250,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -249,6 +265,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -257,6 +274,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -281,6 +299,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -289,6 +308,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -303,6 +323,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -311,6 +332,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -325,6 +347,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -333,6 +356,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -357,6 +381,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -365,6 +390,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -379,6 +405,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -387,6 +414,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -401,6 +429,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -409,6 +438,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -433,6 +463,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -441,6 +472,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -455,6 +487,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -463,6 +496,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -477,6 +511,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -485,6 +520,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -509,6 +545,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -517,6 +554,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -531,6 +569,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -539,6 +578,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -553,6 +593,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -561,6 +602,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -585,6 +627,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -593,6 +636,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -607,6 +651,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -615,6 +660,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -629,6 +675,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -637,6 +684,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -694,6 +742,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>桩</t>
@@ -710,6 +759,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号</t>
@@ -742,6 +792,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>平均</t>
@@ -830,34 +881,40 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -865,23 +922,27 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1215,27 +1276,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,6 +1307,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13000,13 +13061,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="256" width="9" style="32"/>
     <col min="257" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -13014,7 +13075,7 @@
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -13028,7 +13089,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
@@ -13036,7 +13097,7 @@
       <c r="C3" s="47"/>
       <c r="D3" s="48"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -13044,7 +13105,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>2</v>
       </c>
@@ -13058,7 +13119,7 @@
         <v>2.1760000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -13072,7 +13133,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>4</v>
       </c>
@@ -13086,7 +13147,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -13100,7 +13161,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>6</v>
       </c>
@@ -13114,7 +13175,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -13128,7 +13189,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>8</v>
       </c>
@@ -13142,7 +13203,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -13156,7 +13217,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>10</v>
       </c>
@@ -13170,7 +13231,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -13184,7 +13245,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>12</v>
       </c>
@@ -13198,7 +13259,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -13212,7 +13273,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>14</v>
       </c>
@@ -13226,7 +13287,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -13240,7 +13301,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>16</v>
       </c>
@@ -13254,7 +13315,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -13268,7 +13329,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>18</v>
       </c>
@@ -13282,7 +13343,7 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13296,7 +13357,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>20</v>
       </c>
@@ -13310,7 +13371,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -13324,7 +13385,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>22</v>
       </c>
@@ -13338,7 +13399,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -13352,7 +13413,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>24</v>
       </c>
@@ -13366,7 +13427,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -13380,7 +13441,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>26</v>
       </c>
@@ -13394,7 +13455,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -13408,7 +13469,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>28</v>
       </c>
@@ -13422,7 +13483,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -13436,7 +13497,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>30</v>
       </c>
@@ -13450,7 +13511,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -13464,7 +13525,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>32</v>
       </c>
@@ -13478,7 +13539,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>33</v>
       </c>
@@ -13492,13 +13553,13 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>34</v>
       </c>
@@ -13512,7 +13573,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -13526,7 +13587,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>36</v>
       </c>
@@ -13540,7 +13601,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -13554,7 +13615,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>38</v>
       </c>
@@ -13568,7 +13629,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>39</v>
       </c>
@@ -13582,7 +13643,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>40</v>
       </c>
@@ -13596,7 +13657,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>41</v>
       </c>
@@ -13610,7 +13671,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>42</v>
       </c>
@@ -13624,7 +13685,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43</v>
       </c>
@@ -13638,7 +13699,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>44</v>
       </c>
@@ -13652,7 +13713,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -13666,7 +13727,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>46</v>
       </c>
@@ -13680,7 +13741,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>47</v>
       </c>
@@ -13694,7 +13755,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>48</v>
       </c>
@@ -13708,7 +13769,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>49</v>
       </c>
@@ -13722,7 +13783,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>50</v>
       </c>
@@ -13736,7 +13797,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>51</v>
       </c>
@@ -13750,7 +13811,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>52</v>
       </c>
@@ -13764,7 +13825,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>53</v>
       </c>
@@ -13778,7 +13839,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>54</v>
       </c>
@@ -13792,7 +13853,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>55</v>
       </c>
@@ -13806,7 +13867,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>56</v>
       </c>
@@ -13820,7 +13881,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>57</v>
       </c>
@@ -13834,7 +13895,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>58</v>
       </c>
@@ -13848,7 +13909,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>59</v>
       </c>
@@ -13862,7 +13923,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <v>60</v>
       </c>
@@ -13876,7 +13937,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>61</v>
       </c>
@@ -13890,7 +13951,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>62</v>
       </c>
@@ -13904,7 +13965,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>63</v>
       </c>
@@ -13918,7 +13979,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>64</v>
       </c>
@@ -13932,7 +13993,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>65</v>
       </c>
@@ -13946,7 +14007,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>66</v>
       </c>
@@ -13960,7 +14021,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>67</v>
       </c>
@@ -13974,13 +14035,13 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
       <c r="D72" s="45"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>68</v>
       </c>
@@ -13994,7 +14055,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -14008,7 +14069,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
         <v>70</v>
       </c>
@@ -14022,7 +14083,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>71</v>
       </c>
@@ -14036,7 +14097,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
         <v>72</v>
       </c>
@@ -14050,7 +14111,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>73</v>
       </c>
@@ -14064,7 +14125,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>74</v>
       </c>
@@ -14078,7 +14139,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>75</v>
       </c>
@@ -14092,7 +14153,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>76</v>
       </c>
@@ -14106,7 +14167,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>77</v>
       </c>
@@ -14120,7 +14181,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <v>78</v>
       </c>
@@ -14134,7 +14195,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>79</v>
       </c>
@@ -14148,7 +14209,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
         <v>80</v>
       </c>
@@ -14162,7 +14223,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>81</v>
       </c>
@@ -14176,7 +14237,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>82</v>
       </c>
@@ -14190,7 +14251,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>83</v>
       </c>
@@ -14204,7 +14265,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>84</v>
       </c>
@@ -14218,7 +14279,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>85</v>
       </c>
@@ -14232,7 +14293,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
         <v>86</v>
       </c>
@@ -14246,7 +14307,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>87</v>
       </c>
@@ -14260,7 +14321,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>88</v>
       </c>
@@ -14274,7 +14335,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>89</v>
       </c>
@@ -14288,7 +14349,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
         <v>90</v>
       </c>
@@ -14302,7 +14363,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>91</v>
       </c>
@@ -14316,7 +14377,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>92</v>
       </c>
@@ -14330,7 +14391,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>93</v>
       </c>
@@ -14344,7 +14405,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>94</v>
       </c>
@@ -14358,7 +14419,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>95</v>
       </c>
@@ -14372,7 +14433,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
         <v>96</v>
       </c>
@@ -14386,7 +14447,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>97</v>
       </c>
@@ -14400,7 +14461,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="36">
         <v>98</v>
       </c>
@@ -14414,7 +14475,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>99</v>
       </c>
@@ -14428,7 +14489,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="36">
         <v>100</v>
       </c>
@@ -14442,7 +14503,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>3</v>
       </c>
@@ -14456,7 +14517,7 @@
         <v>1.2815000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="35" t="s">
         <v>4</v>
@@ -14496,24 +14557,24 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.875" customWidth="1"/>
+    <col min="1" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="10" width="4.625" customWidth="1"/>
+    <col min="9" max="10" width="4.6640625" customWidth="1"/>
     <col min="11" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="6.75" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="19" width="4.625" customWidth="1"/>
+    <col min="18" max="19" width="4.6640625" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>28</v>
       </c>
@@ -14553,7 +14614,7 @@
       <c r="S1" s="66"/>
       <c r="T1" s="12"/>
     </row>
-    <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="10" t="s">
@@ -14591,10 +14652,10 @@
       <c r="S2" s="68"/>
       <c r="T2" s="69"/>
     </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="I1:J1"/>
@@ -14621,62 +14682,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="15" customWidth="1"/>
     <col min="3" max="3" width="6" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.875" style="15" customWidth="1"/>
-    <col min="12" max="14" width="5.75" style="15" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="15" customWidth="1"/>
-    <col min="18" max="20" width="5.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.88671875" style="15" customWidth="1"/>
+    <col min="12" max="14" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="20" width="5.44140625" style="15" customWidth="1"/>
     <col min="21" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -14687,117 +14748,117 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19">
         <v>1</v>
       </c>
@@ -14813,8 +14874,8 @@
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
@@ -14836,8 +14897,8 @@
       <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
@@ -14845,7 +14906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
@@ -14867,7 +14928,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -14889,7 +14950,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="1"/>
       <c r="C9" s="19"/>
@@ -14911,7 +14972,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="1"/>
       <c r="C10" s="19"/>
@@ -14933,7 +14994,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19"/>
@@ -14955,7 +15016,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -14977,7 +15038,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="1"/>
       <c r="C13" s="19"/>
@@ -14999,7 +15060,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="1"/>
       <c r="C14" s="19"/>
@@ -15021,7 +15082,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19"/>
@@ -15043,7 +15104,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="1"/>
       <c r="C16" s="19"/>
@@ -15065,7 +15126,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="1"/>
       <c r="C17" s="19"/>
@@ -15087,7 +15148,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="1"/>
       <c r="C18" s="19"/>
@@ -15109,7 +15170,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -15131,7 +15192,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="23"/>
       <c r="C20" s="19"/>
@@ -15153,7 +15214,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -15175,7 +15236,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -15197,7 +15258,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="25"/>
@@ -15219,7 +15280,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
@@ -15243,6 +15304,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -15255,15 +15325,6 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:A6">
@@ -15296,58 +15357,58 @@
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="15" customWidth="1"/>
     <col min="3" max="3" width="6" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.875" style="15" customWidth="1"/>
-    <col min="12" max="14" width="5.75" style="15" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="15" customWidth="1"/>
-    <col min="18" max="20" width="5.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.88671875" style="15" customWidth="1"/>
+    <col min="12" max="14" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="20" width="5.44140625" style="15" customWidth="1"/>
     <col min="21" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -15358,117 +15419,117 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19">
         <v>1</v>
       </c>
@@ -15484,8 +15545,8 @@
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
@@ -15507,8 +15568,8 @@
       <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
@@ -15516,7 +15577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
@@ -15538,7 +15599,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -15560,7 +15621,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="1"/>
       <c r="C9" s="19"/>
@@ -15582,7 +15643,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="1"/>
       <c r="C10" s="19"/>
@@ -15604,7 +15665,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19"/>
@@ -15626,7 +15687,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -15648,7 +15709,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="1"/>
       <c r="C13" s="19"/>
@@ -15670,7 +15731,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="1"/>
       <c r="C14" s="19"/>
@@ -15692,7 +15753,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19"/>
@@ -15714,7 +15775,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="1"/>
       <c r="C16" s="19"/>
@@ -15736,7 +15797,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="1"/>
       <c r="C17" s="19"/>
@@ -15758,7 +15819,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="1"/>
       <c r="C18" s="19"/>
@@ -15780,7 +15841,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -15802,7 +15863,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="23"/>
       <c r="C20" s="19"/>
@@ -15824,7 +15885,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -15846,7 +15907,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -15868,7 +15929,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="25"/>
@@ -15890,7 +15951,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
@@ -15914,6 +15975,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -15926,15 +15996,6 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:A6">
@@ -15963,61 +16024,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.875" style="15" customWidth="1"/>
+    <col min="1" max="2" width="11.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="6" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.875" style="15" customWidth="1"/>
-    <col min="12" max="14" width="5.75" style="15" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="15" customWidth="1"/>
-    <col min="18" max="20" width="5.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.88671875" style="15" customWidth="1"/>
+    <col min="12" max="14" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="6.21875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="20" width="5.44140625" style="15" customWidth="1"/>
     <col min="21" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -16028,117 +16089,117 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19">
         <v>1</v>
       </c>
@@ -16154,8 +16215,8 @@
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
@@ -16177,8 +16238,8 @@
       <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
@@ -16186,7 +16247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="26"/>
@@ -16208,7 +16269,7 @@
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -16230,7 +16291,7 @@
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="26"/>
@@ -16252,7 +16313,7 @@
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="26"/>
@@ -16274,7 +16335,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
       <c r="C11" s="26"/>
@@ -16296,7 +16357,7 @@
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -16318,7 +16379,7 @@
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="28"/>
       <c r="C13" s="26"/>
@@ -16340,7 +16401,7 @@
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="28"/>
       <c r="C14" s="26"/>
@@ -16362,7 +16423,7 @@
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="28"/>
       <c r="C15" s="26"/>
@@ -16384,7 +16445,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="28"/>
       <c r="C16" s="26"/>
@@ -16406,7 +16467,7 @@
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="28"/>
       <c r="C17" s="26"/>
@@ -16428,7 +16489,7 @@
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="28"/>
       <c r="C18" s="26"/>
@@ -16450,7 +16511,7 @@
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -16472,7 +16533,7 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
@@ -16494,7 +16555,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="30"/>
@@ -16516,7 +16577,7 @@
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -16538,7 +16599,7 @@
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -16560,7 +16621,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -16584,6 +16645,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -16596,15 +16666,6 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
@@ -16636,57 +16697,57 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.875" style="15" customWidth="1"/>
+    <col min="1" max="2" width="11.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="6" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.875" style="15" customWidth="1"/>
-    <col min="12" max="14" width="5.75" style="15" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="15" customWidth="1"/>
-    <col min="18" max="20" width="5.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.88671875" style="15" customWidth="1"/>
+    <col min="12" max="14" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="6.21875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="20" width="5.44140625" style="15" customWidth="1"/>
     <col min="21" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -16697,117 +16758,117 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19">
         <v>1</v>
       </c>
@@ -16823,8 +16884,8 @@
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
@@ -16846,8 +16907,8 @@
       <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
@@ -16855,7 +16916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="26"/>
@@ -16877,7 +16938,7 @@
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -16899,7 +16960,7 @@
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="26"/>
@@ -16921,7 +16982,7 @@
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="26"/>
@@ -16943,7 +17004,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
       <c r="C11" s="26"/>
@@ -16965,7 +17026,7 @@
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -16987,7 +17048,7 @@
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="28"/>
       <c r="C13" s="26"/>
@@ -17009,7 +17070,7 @@
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="28"/>
       <c r="C14" s="26"/>
@@ -17031,7 +17092,7 @@
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="28"/>
       <c r="C15" s="26"/>
@@ -17053,7 +17114,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="28"/>
       <c r="C16" s="26"/>
@@ -17075,7 +17136,7 @@
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="28"/>
       <c r="C17" s="26"/>
@@ -17097,7 +17158,7 @@
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="28"/>
       <c r="C18" s="26"/>
@@ -17119,7 +17180,7 @@
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -17141,7 +17202,7 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
@@ -17163,7 +17224,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="30"/>
@@ -17185,7 +17246,7 @@
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -17207,7 +17268,7 @@
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -17229,7 +17290,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -17253,6 +17314,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -17265,15 +17335,6 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
@@ -17305,58 +17366,58 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="5.375" style="15" customWidth="1"/>
-    <col min="13" max="14" width="5.75" style="15" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="15" customWidth="1"/>
-    <col min="18" max="20" width="5.5" style="15" customWidth="1"/>
+    <col min="1" max="2" width="11.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.88671875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" style="15" customWidth="1"/>
+    <col min="13" max="14" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="20" width="5.44140625" style="15" customWidth="1"/>
     <col min="21" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -17367,117 +17428,117 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19">
         <v>1</v>
       </c>
@@ -17493,8 +17554,8 @@
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
@@ -17516,8 +17577,8 @@
       <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
@@ -17525,7 +17586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
@@ -17547,7 +17608,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -17569,7 +17630,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="1"/>
       <c r="C9" s="19"/>
@@ -17591,7 +17652,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="1"/>
       <c r="C10" s="19"/>
@@ -17613,7 +17674,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19"/>
@@ -17635,7 +17696,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -17657,7 +17718,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="1"/>
       <c r="C13" s="19"/>
@@ -17679,7 +17740,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="1"/>
       <c r="C14" s="19"/>
@@ -17701,7 +17762,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19"/>
@@ -17723,7 +17784,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="1"/>
       <c r="C16" s="19"/>
@@ -17745,7 +17806,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="1"/>
       <c r="C17" s="19"/>
@@ -17767,7 +17828,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="1"/>
       <c r="C18" s="19"/>
@@ -17789,7 +17850,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -17811,7 +17872,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="19"/>
@@ -17833,7 +17894,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -17855,7 +17916,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -17877,7 +17938,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="25"/>
@@ -17899,7 +17960,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
@@ -17923,6 +17984,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -17935,15 +18005,6 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -17975,57 +18036,57 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.875" style="15" customWidth="1"/>
-    <col min="12" max="14" width="5.75" style="15" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="15" customWidth="1"/>
-    <col min="18" max="20" width="5.5" style="15" customWidth="1"/>
+    <col min="1" max="2" width="11.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.88671875" style="15" customWidth="1"/>
+    <col min="12" max="14" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="20" width="5.44140625" style="15" customWidth="1"/>
     <col min="21" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -18036,117 +18097,117 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19">
         <v>1</v>
       </c>
@@ -18162,8 +18223,8 @@
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
@@ -18185,8 +18246,8 @@
       <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
@@ -18194,7 +18255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
@@ -18216,7 +18277,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -18238,7 +18299,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="1"/>
       <c r="C9" s="19"/>
@@ -18260,7 +18321,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="1"/>
       <c r="C10" s="19"/>
@@ -18282,7 +18343,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19"/>
@@ -18304,7 +18365,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -18326,7 +18387,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="1"/>
       <c r="C13" s="19"/>
@@ -18348,7 +18409,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="1"/>
       <c r="C14" s="19"/>
@@ -18370,7 +18431,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19"/>
@@ -18392,7 +18453,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="1"/>
       <c r="C16" s="19"/>
@@ -18414,7 +18475,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="1"/>
       <c r="C17" s="19"/>
@@ -18436,7 +18497,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="1"/>
       <c r="C18" s="19"/>
@@ -18458,7 +18519,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -18480,7 +18541,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="19"/>
@@ -18502,7 +18563,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -18524,7 +18585,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -18546,7 +18607,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="25"/>
@@ -18568,7 +18629,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
@@ -18592,6 +18653,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -18604,15 +18674,6 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -18644,57 +18705,57 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.875" style="15" customWidth="1"/>
+    <col min="1" max="2" width="11.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="6" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.875" style="15" customWidth="1"/>
-    <col min="12" max="14" width="5.75" style="15" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="15" customWidth="1"/>
-    <col min="18" max="20" width="5.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.88671875" style="15" customWidth="1"/>
+    <col min="12" max="14" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="6.21875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="20" width="5.44140625" style="15" customWidth="1"/>
     <col min="21" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -18705,117 +18766,117 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19">
         <v>1</v>
       </c>
@@ -18831,8 +18892,8 @@
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
@@ -18854,8 +18915,8 @@
       <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
@@ -18863,7 +18924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
@@ -18885,7 +18946,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -18907,7 +18968,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="1"/>
       <c r="C9" s="19"/>
@@ -18929,7 +18990,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="1"/>
       <c r="C10" s="19"/>
@@ -18951,7 +19012,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19"/>
@@ -18973,7 +19034,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -18995,7 +19056,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="1"/>
       <c r="C13" s="19"/>
@@ -19017,7 +19078,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="1"/>
       <c r="C14" s="19"/>
@@ -19039,7 +19100,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19"/>
@@ -19061,7 +19122,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="1"/>
       <c r="C16" s="19"/>
@@ -19083,7 +19144,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="1"/>
       <c r="C17" s="19"/>
@@ -19105,7 +19166,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="1"/>
       <c r="C18" s="19"/>
@@ -19127,7 +19188,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -19149,7 +19210,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="19"/>
@@ -19171,7 +19232,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -19193,7 +19254,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -19215,7 +19276,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="25"/>
@@ -19237,7 +19298,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
@@ -19261,6 +19322,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -19273,15 +19343,6 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
@@ -19309,61 +19370,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.875" style="15" customWidth="1"/>
+    <col min="1" max="2" width="11.88671875" style="15" customWidth="1"/>
     <col min="3" max="3" width="6" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.875" style="15" customWidth="1"/>
-    <col min="12" max="14" width="5.75" style="15" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="15" customWidth="1"/>
-    <col min="18" max="20" width="5.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.88671875" style="15" customWidth="1"/>
+    <col min="12" max="14" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="6.21875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="20" width="5.44140625" style="15" customWidth="1"/>
     <col min="21" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -19374,117 +19435,117 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-    </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="19">
         <v>1</v>
       </c>
@@ -19500,8 +19561,8 @@
       <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
@@ -19523,8 +19584,8 @@
       <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
@@ -19532,7 +19593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="1"/>
       <c r="C7" s="19"/>
@@ -19554,7 +19615,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -19576,7 +19637,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="1"/>
       <c r="C9" s="19"/>
@@ -19598,7 +19659,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="1"/>
       <c r="C10" s="19"/>
@@ -19620,7 +19681,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19"/>
@@ -19642,7 +19703,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -19664,7 +19725,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="1"/>
       <c r="C13" s="19"/>
@@ -19686,7 +19747,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="1"/>
       <c r="C14" s="19"/>
@@ -19708,7 +19769,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19"/>
@@ -19730,7 +19791,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="1"/>
       <c r="C16" s="19"/>
@@ -19752,7 +19813,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="1"/>
       <c r="C17" s="19"/>
@@ -19774,7 +19835,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="1"/>
       <c r="C18" s="19"/>
@@ -19796,7 +19857,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -19818,7 +19879,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="19"/>
@@ -19840,7 +19901,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -19862,7 +19923,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -19884,7 +19945,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="25"/>
@@ -19906,7 +19967,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
@@ -19930,6 +19991,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="H5:H6"/>
@@ -19942,15 +20012,6 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
